--- a/kicad_v2/gerber/halo-all-pos_JLCpcb.xlsx
+++ b/kicad_v2/gerber/halo-all-pos_JLCpcb.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -100,6 +100,27 @@
     <t xml:space="preserve">C20</t>
   </si>
   <si>
+    <t xml:space="preserve">C21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27</t>
+  </si>
+  <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
@@ -208,19 +229,100 @@
     <t xml:space="preserve">D36</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
+    <t xml:space="preserve">D37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D68</t>
   </si>
   <si>
     <t xml:space="preserve">R1</t>
@@ -254,9 +356,6 @@
   </si>
   <si>
     <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
@@ -353,7 +452,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +461,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,21 +490,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="15.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="1022" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="15.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="2" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -417,33 +518,36 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>184.404</v>
+        <v>204.47</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-90.678</v>
+        <v>-86.995</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>195.834</v>
+        <v>185.42</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-74.422</v>
+        <v>-69.85</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -452,15 +556,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>180.594</v>
+        <v>196.215</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-90.678</v>
+        <v>-88.9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -469,15 +573,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>178.054</v>
+        <v>193.675</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>-90.678</v>
+        <v>-88.9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -486,83 +590,83 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>194.818</v>
+        <v>202.565</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>-92.71</v>
+        <v>-80.264</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>201.295</v>
+        <v>202.565</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>-92.71</v>
+        <v>-73.787</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>123.698</v>
+        <v>99.695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>-83.566</v>
+        <v>-72.39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>109.474</v>
+        <v>80.01</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>-81.534</v>
+        <v>-80.01</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>165.862</v>
+        <v>168.91</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>-74.422</v>
+        <v>-69.85</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -571,49 +675,49 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>215.9</v>
+        <v>213.995</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>-83.312</v>
+        <v>-64.77</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>42.672</v>
+        <v>44.45</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>-109.982</v>
+        <v>-88.9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>81.28</v>
+        <v>62.23</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-109.982</v>
+        <v>-114.3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -622,32 +726,32 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>118.872</v>
+        <v>74.93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>-109.982</v>
+        <v>-88.9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>156.972</v>
+        <v>92.71</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-109.982</v>
+        <v>-114.3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -656,32 +760,32 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>195.326</v>
+        <v>105.41</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>-109.982</v>
+        <v>-88.9</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>233.172</v>
+        <v>107.95</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>-109.982</v>
+        <v>-114.3</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -690,15 +794,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>142.748</v>
+        <v>149.86</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>-67.056</v>
+        <v>-79.4512</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -707,66 +811,66 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>143.764</v>
+        <v>133.35</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>-117.856</v>
+        <v>-114.3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>109.474</v>
+        <v>80.01</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>-85.598</v>
+        <v>-82.55</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>177.2412</v>
+        <v>176.53</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>-72.39</v>
+        <v>-69.85</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>21.59</v>
+        <v>151.13</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>-101.6</v>
+        <v>-88.9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -775,32 +879,32 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>29.21</v>
+        <v>168.91</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>-101.6</v>
+        <v>-114.3</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>36.83</v>
+        <v>181.61</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>-101.6</v>
+        <v>-88.9</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -809,49 +913,49 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44.45</v>
+        <v>199.39</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>-101.6</v>
+        <v>-114.3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>52.07</v>
+        <v>229.87</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>-101.6</v>
+        <v>-114.3</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>59.69</v>
+        <v>227.838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>-101.6</v>
+        <v>-88.9</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -860,15 +964,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>67.31</v>
+        <v>60.96</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-101.6</v>
+        <v>-72.39</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -877,440 +981,440 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>74.93</v>
+        <v>21.59</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>82.55</v>
+        <v>21.59</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>90.17</v>
+        <v>29.21</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>97.79</v>
+        <v>29.21</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>105.41</v>
+        <v>36.83</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>113.03</v>
+        <v>36.83</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>120.65</v>
+        <v>44.45</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>128.27</v>
+        <v>44.45</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>135.89</v>
+        <v>52.07</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>143.51</v>
+        <v>52.07</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>151.13</v>
+        <v>59.69</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>158.75</v>
+        <v>59.69</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>166.37</v>
+        <v>67.31</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>173.99</v>
+        <v>67.31</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>181.61</v>
+        <v>74.93</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>189.23</v>
+        <v>74.93</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>196.85</v>
+        <v>82.55</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>204.47</v>
+        <v>82.55</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>212.09</v>
+        <v>90.17</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>219.71</v>
+        <v>90.17</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>227.33</v>
+        <v>97.79</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>234.95</v>
+        <v>97.79</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>242.57</v>
+        <v>105.41</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>-101.6</v>
+        <v>-104.775</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>250.19</v>
+        <v>105.41</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>257.81</v>
+        <v>113.03</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>-101.6</v>
+        <v>-98.425</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>145.288</v>
+        <v>113.03</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>-83.566</v>
+        <v>-104.775</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>6</v>
@@ -1319,15 +1423,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>132.334</v>
+        <v>120.65</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>-83.566</v>
+        <v>-104.775</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>6</v>
@@ -1336,83 +1440,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>107.188</v>
+        <v>120.65</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>-81.534</v>
+        <v>-98.425</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>200.279</v>
+        <v>128.27</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>-74.549</v>
+        <v>-98.425</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>56.388</v>
+        <v>128.27</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>-88.9</v>
+        <v>-104.775</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>172.212</v>
+        <v>135.89</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>-67.183</v>
+        <v>-104.775</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>208.153</v>
+        <v>135.89</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>-83.439</v>
+        <v>-98.425</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>6</v>
@@ -1421,49 +1525,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>227.33</v>
+        <v>145.415</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>-88.9</v>
+        <v>-82.55</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>151.892</v>
+        <v>119.38</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>-72.644</v>
+        <v>-76.2</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>182.88</v>
+        <v>80.01</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>-77.724</v>
+        <v>-77.47</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>6</v>
@@ -1472,168 +1576,168 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>182.88</v>
+        <v>196.215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>-81.534</v>
+        <v>-65.786</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>182.88</v>
+        <v>143.51</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>-83.693</v>
+        <v>-98.425</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>189.484</v>
+        <v>143.51</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>-91.948</v>
+        <v>-104.775</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>145.034</v>
+        <v>151.13</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>-67.056</v>
+        <v>-104.775</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>158.75</v>
+        <v>151.13</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>-67.056</v>
+        <v>-98.425</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>104.902</v>
+        <v>158.75</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>-81.534</v>
+        <v>-98.425</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>202.692</v>
+        <v>158.75</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>-74.549</v>
+        <v>-104.775</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>203.835</v>
+        <v>166.37</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>-92.71</v>
+        <v>-104.775</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>206.375</v>
+        <v>166.37</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>-92.71</v>
+        <v>-98.425</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>171.958</v>
+        <v>173.99</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>-78.74</v>
+        <v>-98.425</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>6</v>
@@ -1642,32 +1746,32 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>152.4</v>
+        <v>173.99</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>-137.16</v>
+        <v>-104.775</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>193.04</v>
+        <v>181.61</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>-83.312</v>
+        <v>-104.775</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>6</v>
@@ -1676,15 +1780,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>115.316</v>
+        <v>181.61</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>-83.566</v>
+        <v>-98.425</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>6</v>
@@ -1693,23 +1797,590 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>198.12</v>
+        <v>189.23</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>-91.44</v>
+        <v>-98.425</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>189.23</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>196.85</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>196.85</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>204.47</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>204.47</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>212.09</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>212.09</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>219.71</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>219.71</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>227.33</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>227.33</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>234.95</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>234.95</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>242.57</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>242.57</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>250.19</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>250.19</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>257.81</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>-104.775</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>257.81</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>-98.425</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>179.07</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>-69.85</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>175.895</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>-88.9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>178.435</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>-88.9</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>191.135</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>-88.9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>165.735</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>-80.645</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>165.735</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>-76.835</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>80.01</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>-74.93</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>198.882</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>-65.786</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>-77.47</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>71.12</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>-80.01</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>172.72</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>-76.2</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>-78.74</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>90.17</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>-80.01</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>201.295</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>-76.962001</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
